--- a/excel_with_subclasses/without_zeros/district_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/district_with_count_without_zeros.xlsx
@@ -411,7 +411,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -431,9 +431,6 @@
           <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>10115</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,9 +448,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>7630</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -471,9 +465,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>6273</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -491,9 +482,6 @@
           <t>Q27002_сельсовет в СССР</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2208</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -511,9 +499,6 @@
           <t>Q149621_дистрикт,Q15633191_distrito</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>1875</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -531,9 +516,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1760</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -551,9 +533,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>1253</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -571,9 +550,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>1092</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -591,9 +567,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1020</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -611,9 +584,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>956</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -631,9 +601,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>920</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -651,9 +618,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>878</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -671,9 +635,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>811</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -691,9 +652,6 @@
           <t>Q1631226_поселковый совет</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>655</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -711,9 +669,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>647</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -731,9 +686,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>485</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -751,9 +703,6 @@
           <t>Q15633191_distrito</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>476</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -771,9 +720,6 @@
           <t>Q15630906_сельский район</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>446</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -791,9 +737,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>409</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -811,9 +754,6 @@
           <t>Q15630906_сельский район</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>402</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -831,9 +771,6 @@
           <t>Q398141_школьный округ</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>379</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -851,9 +788,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>345</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -871,9 +805,6 @@
           <t>Q15630906_сельский район</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>343</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -891,9 +822,6 @@
           <t>Q15243209_исторический район</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>300</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -911,9 +839,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>284</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -931,9 +856,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>268</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -951,9 +873,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>265</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -971,9 +890,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>261</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -991,9 +907,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>249</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1011,9 +924,6 @@
           <t>Q349084_район Англии</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>229</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1031,9 +941,6 @@
           <t>Q1122846_уезд Японии</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>218</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1051,9 +958,6 @@
           <t>Q15243209_исторический район</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>180</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1071,9 +975,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>179</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1091,9 +992,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>172</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1111,9 +1009,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>160</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1131,9 +1026,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>157</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1151,9 +1043,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>143</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1171,88 +1060,73 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>139</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Q3539870</t>
+          <t>Q3556789</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>округ Уганды</t>
+          <t>округ Мадагаскара</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D40" t="n">
-        <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Q3556789</t>
+          <t>Q3539870</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>округ Мадагаскара</t>
+          <t>округ Уганды</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D41" t="n">
-        <v>127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Q4389092</t>
+          <t>Q6593031</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>район Москвы</t>
+          <t>федеральный избирательный округ в Онтарио</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Q15195406_район города в России</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>119</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Q6593031</t>
+          <t>Q4389092</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>федеральный избирательный округ в Онтарио</t>
+          <t>район Москвы</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>119</v>
+          <t>Q15195406_район города в России</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -1271,9 +1145,6 @@
           <t>Q398141_школьный округ</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>109</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1291,9 +1162,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>107</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1311,9 +1179,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1331,9 +1196,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>96</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1351,9 +1213,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>88</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,9 +1230,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>87</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1391,9 +1247,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>85</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1411,9 +1264,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>83</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1431,9 +1281,6 @@
           <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>81</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1451,9 +1298,6 @@
           <t>Q15633191_distrito</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>80</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1471,9 +1315,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1491,9 +1332,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1511,9 +1349,6 @@
           <t>Q247073_повет</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>66</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1531,9 +1366,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1551,9 +1383,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1571,9 +1400,6 @@
           <t>Q1187580_неметропольный район</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1591,9 +1417,6 @@
           <t>Q15726209_school district in the United States</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1611,9 +1434,6 @@
           <t>Q15630906_сельский район</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1631,9 +1451,6 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1651,9 +1468,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>40</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1671,9 +1485,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1691,48 +1502,39 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>37</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Q1002812</t>
+          <t>Q6619312</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>метропольный боро в Англии</t>
+          <t>federal electoral district in British Columbia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Q349084_район Англии</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>36</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Q6619312</t>
+          <t>Q1002812</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>federal electoral district in British Columbia</t>
+          <t>метропольный боро в Англии</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>36</v>
+          <t>Q349084_район Англии</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -1751,9 +1553,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1771,9 +1570,6 @@
           <t>Q398141_школьный округ</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1791,48 +1587,39 @@
           <t>Q349084_район Англии</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Q702842</t>
+          <t>Q86732061</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>муниципальный округ Франции</t>
+          <t>School service centre</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>32</v>
+          <t>Q398141_школьный округ</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Q86732061</t>
+          <t>Q702842</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>School service centre</t>
+          <t>муниципальный округ Франции</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>32</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -1851,9 +1638,6 @@
           <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1871,9 +1655,6 @@
           <t>Q15633191_distrito</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1891,48 +1672,39 @@
           <t>Q398141_школьный округ</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Q821435</t>
+          <t>Q1058387</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>округ Берлина</t>
+          <t>провинции Малави</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>28</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Q1058387</t>
+          <t>Q821435</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>провинции Малави</t>
+          <t>округ Берлина</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>28</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -1951,28 +1723,22 @@
           <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Q15634846</t>
+          <t>Q253270</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>район Сеула</t>
+          <t>borough of Munich</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>25</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="80">
@@ -1991,168 +1757,141 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Q1230110</t>
+          <t>Q15634846</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>округа Шри-Ланки</t>
+          <t>район Сеула</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>25</v>
+          <t>Q15901936_гу</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q253270</t>
+          <t>Q1230110</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>borough of Munich</t>
+          <t>округа Шри-Ланки</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>25</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Q5034569</t>
+          <t>Q2935973</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>район городского подчинения</t>
+          <t>phytogeographic district</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>24</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Q2935973</t>
+          <t>Q5034569</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>phytogeographic district</t>
+          <t>район городского подчинения</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>24</v>
+          <t>Q1065118_район городского подчинения КНР</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Q261023</t>
+          <t>Q74728036</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>районы Вены</t>
+          <t>административный округ Праги</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Q17496379_район города в Австрии</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>23</v>
+          <t>Q585444_административное деление Праги</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Q585444</t>
+          <t>Q261023</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>административное деление Праги</t>
+          <t>районы Вены</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>23</v>
+          <t>Q17496379_район города в Австрии</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Q74728036</t>
+          <t>Q5327704</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>административный округ Праги</t>
+          <t>special ward of Japan</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>23</v>
+          <t>Q137773_автономный внутригородской район Японии</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Q5327704</t>
+          <t>Q585444</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>special ward of Japan</t>
+          <t>административное деление Праги</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Q137773_автономный внутригородской район Японии</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>23</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -2171,9 +1910,6 @@
           <t>Q4286337_район города</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>22</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2191,28 +1927,22 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Q26907711</t>
+          <t>Q8561193</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>district of the Australian Capital Territory</t>
+          <t>district of Valencia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>19</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="92">
@@ -2231,28 +1961,22 @@
           <t>Q15630906_сельский район</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Q8561193</t>
+          <t>Q26907711</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>district of Valencia</t>
+          <t>district of the Australian Capital Territory</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>19</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -2271,248 +1995,209 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>18</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Q42577368</t>
+          <t>Q12806962</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>intermediate school district of Michigan</t>
+          <t>District of Ljubljana</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Q15726209_school district in the United States</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>17</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Q1852119</t>
+          <t>Q12645496</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>district of Graz</t>
+          <t>Список районов Загреба</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>17</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Q12645496</t>
+          <t>Q42577368</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Список районов Загреба</t>
+          <t>intermediate school district of Michigan</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>17</v>
+          <t>Q15726209_school district in the United States</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Q15982377</t>
+          <t>Q1852119</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>сельсовет в России</t>
+          <t>district of Graz</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>17</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q12806962</t>
+          <t>Q15633191</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>District of Ljubljana</t>
+          <t>distrito</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D99" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Q15633191</t>
+          <t>Q15982377</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>distrito</t>
+          <t>сельсовет в России</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>17</v>
+          <t>Q27002_сельсовет в СССР</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Q15727673</t>
+          <t>Q15634883</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>городской округ Ганновера</t>
+          <t>округ Манилы</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>16</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Q5283559</t>
+          <t>Q15727673</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>районы ДР Конго</t>
+          <t>городской округ Ганновера</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D102" t="n">
-        <v>16</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Q15634883</t>
+          <t>Q349084</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>округ Манилы</t>
+          <t>район Англии</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D103" t="n">
-        <v>16</v>
+          <t>Q17601336_district of the United Kingdom</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q349084</t>
+          <t>Q5283559</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>район Англии</t>
+          <t>районы ДР Конго</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Q17601336_district of the United Kingdom</t>
-        </is>
-      </c>
-      <c r="D104" t="n">
-        <v>16</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q702875</t>
+          <t>Q17277366</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Административное деление Марселя</t>
+          <t>former district of the canton of Vaud</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Q702842_муниципальный округ Франции</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>15</v>
+          <t>Q17278014_бывший округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q15063368</t>
+          <t>Q628993</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>federal electoral district in Manitoba</t>
+          <t>district of the canton of Valais</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D106" t="n">
-        <v>15</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -2531,108 +2216,90 @@
           <t>Q15901936_гу</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Q15063395</t>
+          <t>Q702875</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>federal electoral district in Saskatchewan</t>
+          <t>Административное деление Марселя</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D108" t="n">
-        <v>15</v>
+          <t>Q702842_муниципальный округ Франции</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Q628993</t>
+          <t>Q15063395</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>district of the canton of Valais</t>
+          <t>federal electoral district in Saskatchewan</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>15</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q17277366</t>
+          <t>Q15063368</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>former district of the canton of Vaud</t>
+          <t>federal electoral district in Manitoba</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>15</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Q16997861</t>
+          <t>Q16751551</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>joint technological education district</t>
+          <t>borough of Brescia</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
-        </is>
-      </c>
-      <c r="D111" t="n">
-        <v>14</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Q16751551</t>
+          <t>Q16997861</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>borough of Brescia</t>
+          <t>joint technological education district</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>14</v>
+          <t>Q398141_школьный округ</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -2651,68 +2318,56 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Q16678127</t>
+          <t>Q1808877</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>administrative territorial entity of Anguilla</t>
+          <t>подобщина</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>13</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Q1649296</t>
+          <t>Q16678127</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>округ Суринама</t>
+          <t>administrative territorial entity of Anguilla</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D115" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q1808877</t>
+          <t>Q22833408</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>подобщина</t>
+          <t>District of the city of Strasbourg, France</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>13</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -2731,368 +2386,311 @@
           <t>Q17278014_бывший округ Швейцарии</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Q22833408</t>
+          <t>Q1649296</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>District of the city of Strasbourg, France</t>
+          <t>округ Суринама</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D118" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Q2779745</t>
+          <t>Q7438320</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>городской округ в Нидерландах</t>
+          <t>scout district</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>12</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Q2845944</t>
+          <t>Q4057728</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>former arrondissement of Paris</t>
+          <t>Административное деление Еревана</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Q679388_Административное деление Парижа,Q702842_муниципальный округ Франции</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>12</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Q7438320</t>
+          <t>Q2779745</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>scout district</t>
+          <t>городской округ в Нидерландах</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>12</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Q17364572</t>
+          <t>Q23013985</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>округ Северной Ирландии</t>
+          <t>region of Graubünden</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>12</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Q15063384</t>
+          <t>Q2845944</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>federal electoral district in Nova Scotia</t>
+          <t>former arrondissement of Paris</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>12</v>
+          <t>Q679388_Административное деление Парижа,Q702842_муниципальный округ Франции</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Q4057728</t>
+          <t>Q17364572</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Административное деление Еревана</t>
+          <t>округ Северной Ирландии</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D124" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Q23013985</t>
+          <t>Q15063384</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>region of Graubünden</t>
+          <t>federal electoral district in Nova Scotia</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D125" t="n">
-        <v>12</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q3091916</t>
+          <t>Q5283507</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>district of the canton of Graubünden</t>
+          <t>district of Davao City</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D126" t="n">
-        <v>11</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Q15644465</t>
+          <t>Q2749147</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>district of the canton of Zürich</t>
+          <t>Castellany</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D127" t="n">
-        <v>11</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Q3032131</t>
+          <t>Q3091916</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>district of the canton of Solothurn</t>
+          <t>district of the canton of Graubünden</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>Q662914_округ Швейцарии</t>
         </is>
-      </c>
-      <c r="D128" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Q3032116</t>
+          <t>Q3032131</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>округ кантона Аргау</t>
+          <t>district of the canton of Solothurn</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>Q662914_округ Швейцарии</t>
         </is>
-      </c>
-      <c r="D129" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Q2749147</t>
+          <t>Q15644465</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Castellany</t>
+          <t>district of the canton of Zürich</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D130" t="n">
-        <v>11</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Q55791821</t>
+          <t>Q3032116</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>district of Somaliland</t>
+          <t>округ кантона Аргау</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D131" t="n">
-        <v>11</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Q5283507</t>
+          <t>Q55791821</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>district of Davao City</t>
+          <t>district of Somaliland</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D132" t="n">
-        <v>11</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q18600372</t>
+          <t>Q3032132</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>borough of Dresden</t>
+          <t>округ кантона Во</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D133" t="n">
-        <v>10</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Q3032132</t>
+          <t>Q15063373</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>округ кантона Во</t>
+          <t>federal electoral district in New Brunswick</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>10</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Q3867179</t>
+          <t>Q75339006</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>municipalità of Naples</t>
+          <t>городской округ Праги</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>10</v>
+          <t>Q585444_административное деление Праги</t>
+        </is>
       </c>
     </row>
     <row r="136">
@@ -3111,28 +2709,22 @@
           <t>Q2740635_городской район в Германии</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Q75339006</t>
+          <t>Q18600372</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>городской округ Праги</t>
+          <t>borough of Dresden</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Q585444_административное деление Праги</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>10</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="138">
@@ -3151,148 +2743,124 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Q15063373</t>
+          <t>Q3867179</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>federal electoral district in New Brunswick</t>
+          <t>municipalità of Naples</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>10</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Q3927244</t>
+          <t>Q15632133</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>boroughs of Bologna</t>
+          <t>city district of Cologne</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>9</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Q1620797</t>
+          <t>Q15079751</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>исторический район в США</t>
+          <t>район Амстердама</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Q15243209_исторический район</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>9</v>
+          <t>Q2779745_городской округ в Нидерландах</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q40256562</t>
+          <t>Q3927244</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>внутригородской район</t>
+          <t>boroughs of Bologna</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>9</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Q15632133</t>
+          <t>Q2864107</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>city district of Cologne</t>
+          <t>административный район кантона Берн</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>9</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Q2864107</t>
+          <t>Q40256562</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>административный район кантона Берн</t>
+          <t>внутригородской район</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>9</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Q15079751</t>
+          <t>Q1620797</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>район Амстердама</t>
+          <t>исторический район в США</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Q2779745_городской округ в Нидерландах</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>9</v>
+          <t>Q15243209_исторический район</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -3311,608 +2879,515 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Q18545295</t>
+          <t>Q610625</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>district of Incheon</t>
+          <t>Административное деление Милана</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Q15901936_гу</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>8</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Q610625</t>
+          <t>Q17276572</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Административное деление Милана</t>
+          <t>избирательный округ кантон Санкт-Галлен</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D148" t="n">
-        <v>8</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Q17276572</t>
+          <t>Q3032137</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>избирательный округ кантон Санкт-Галлен</t>
+          <t>округ кантона Тичино</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>Q662914_округ Швейцарии</t>
         </is>
-      </c>
-      <c r="D149" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q3032137</t>
+          <t>Q18545295</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>округ кантона Тичино</t>
+          <t>district of Incheon</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D150" t="n">
-        <v>8</v>
+          <t>Q15901936_гу</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Q56205755</t>
+          <t>Q193560</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>district of Rotuma</t>
+          <t>округ Израиля</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D151" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Q96180429</t>
+          <t>Q56205755</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>city district of Langenhagen</t>
+          <t>district of Rotuma</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D152" t="n">
-        <v>7</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Q5811429</t>
+          <t>Q278976</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>distrito in Managua</t>
+          <t>районы и кварталы Гамбурга</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>7</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Q278976</t>
+          <t>Q3032122</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>районы и кварталы Гамбурга</t>
+          <t>округ кантон Фрибур</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D154" t="n">
-        <v>7</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Q193560</t>
+          <t>Q96180429</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>округ Израиля</t>
+          <t>city district of Langenhagen</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>7</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Q15063379</t>
+          <t>Q23925379</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>federal electoral district in Newfoundland and Labrador</t>
+          <t>Prefecture of Arrondissement</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Q17202187_канадский федеральный избирательный округ</t>
-        </is>
-      </c>
-      <c r="D156" t="n">
-        <v>7</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Q23925379</t>
+          <t>Q15063379</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Prefecture of Arrondissement</t>
+          <t>federal electoral district in Newfoundland and Labrador</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D157" t="n">
-        <v>7</v>
+          <t>Q17202187_канадский федеральный избирательный округ</t>
+        </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q3032122</t>
+          <t>Q5811429</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>округ кантон Фрибур</t>
+          <t>distrito in Managua</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D158" t="n">
-        <v>7</v>
+          <t>Q15633191_distrito</t>
+        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Q59136</t>
+          <t>Q2864207</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>район Республики Кипр</t>
+          <t>constituency of the canton of Lucerne</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>6</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Q17601336</t>
+          <t>Q3032124</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>district of the United Kingdom</t>
+          <t>district of the canton of Schwyz</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D160" t="n">
-        <v>6</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Q3677930</t>
+          <t>Q59136</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>quarter of Messina</t>
+          <t>район Республики Кипр</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>6</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Q17277998</t>
+          <t>Q3677930</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>district of the canton of Schaffhausen</t>
+          <t>quarter of Messina</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>6</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Q15921300</t>
+          <t>Q765865</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>sector of Bucharest</t>
+          <t>округ Белиза</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D163" t="n">
-        <v>6</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Q765865</t>
+          <t>Q17601336</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>округ Белиза</t>
+          <t>district of the United Kingdom</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
           <t>Q149621_дистрикт</t>
         </is>
-      </c>
-      <c r="D164" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Q3032126</t>
+          <t>Q15921300</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>district of the canton of Neuchâtel</t>
+          <t>sector of Bucharest</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D165" t="n">
-        <v>6</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Q3032124</t>
+          <t>Q3032126</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>district of the canton of Schwyz</t>
+          <t>district of the canton of Neuchâtel</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
           <t>Q662914_округ Швейцарии</t>
         </is>
-      </c>
-      <c r="D166" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Q2864207</t>
+          <t>Q17277998</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>constituency of the canton of Lucerne</t>
+          <t>district of the canton of Schaffhausen</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>6</v>
+          <t>Q17278014_бывший округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Q3032119</t>
+          <t>Q850649</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>district of the canton of Basel-Land</t>
+          <t>Important Preservation Districts for Groups of Traditional Buildings</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D168" t="n">
-        <v>5</v>
+          <t>Q16141600_Группы традиционных зданий</t>
+        </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Q17278423</t>
+          <t>Q3032119</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>district of Bremen</t>
+          <t>district of the canton of Basel-Land</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Q2740635_городской район в Германии</t>
-        </is>
-      </c>
-      <c r="D169" t="n">
-        <v>5</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Q3927247</t>
+          <t>Q3032123</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>borough of Florence</t>
+          <t>округ кантона Люцерн</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D170" t="n">
-        <v>5</v>
+          <t>Q17278014_бывший округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Q3032123</t>
+          <t>Q3927247</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>округ кантона Люцерн</t>
+          <t>borough of Florence</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D171" t="n">
-        <v>5</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Q3032133</t>
+          <t>Q17278423</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>district of Canton Thurgau</t>
+          <t>district of Bremen</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D172" t="n">
-        <v>5</v>
+          <t>Q2740635_городской район в Германии</t>
+        </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Q30339232</t>
+          <t>Q3032133</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>сектор Кишинёва</t>
+          <t>district of Canton Thurgau</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D173" t="n">
-        <v>5</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Q850649</t>
+          <t>Q3569918</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Important Preservation Districts for Groups of Traditional Buildings</t>
+          <t>special district of Ethiopia</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Q16141600_Группы традиционных зданий</t>
-        </is>
-      </c>
-      <c r="D174" t="n">
-        <v>5</v>
+          <t>Q690840_округ в Эфиопии</t>
+        </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Q3569918</t>
+          <t>Q30339232</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>special district of Ethiopia</t>
+          <t>сектор Кишинёва</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Q690840_округ в Эфиопии</t>
-        </is>
-      </c>
-      <c r="D175" t="n">
-        <v>5</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Q3032103</t>
+          <t>Q1045593</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>districts of Colombia</t>
+          <t>Район уездного подчинения</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Q15633191_distrito</t>
-        </is>
-      </c>
-      <c r="D176" t="n">
-        <v>4</v>
+          <t>Q1065118_район городского подчинения КНР</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -3931,9 +3406,6 @@
           <t>Q17202187_канадский федеральный избирательный округ</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3951,108 +3423,90 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D178" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Q854138</t>
+          <t>Q3032103</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Bezirksamt</t>
+          <t>districts of Colombia</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>4</v>
+          <t>Q15633191_distrito</t>
+        </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Q1045593</t>
+          <t>Q854138</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Район уездного подчинения</t>
+          <t>Bezirksamt</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>4</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Q17312348</t>
+          <t>Q81269968</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>former subdistrict of the canton of Ticino</t>
+          <t>city school district</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Q17278014_бывший округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>3</v>
+          <t>Q398141_школьный округ</t>
+        </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Q81269968</t>
+          <t>Q81271307</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>city school district</t>
+          <t>local school district</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
           <t>Q398141_школьный округ</t>
         </is>
-      </c>
-      <c r="D182" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Q81271307</t>
+          <t>Q14242187</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>local school district</t>
+          <t>район Нижнего Новгорода</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>3</v>
+          <t>Q15195406_район города в России</t>
+        </is>
       </c>
     </row>
     <row r="184">
@@ -4071,28 +3525,22 @@
           <t>Q149621_дистрикт</t>
         </is>
       </c>
-      <c r="D184" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Q14242187</t>
+          <t>Q96739262</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>район Нижнего Новгорода</t>
+          <t>district of Almería</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Q15195406_район города в России</t>
-        </is>
-      </c>
-      <c r="D185" t="n">
-        <v>3</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -4111,408 +3559,345 @@
           <t>Q662914_округ Швейцарии</t>
         </is>
       </c>
-      <c r="D186" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Q96739262</t>
+          <t>Q3032139</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>district of Almería</t>
+          <t>district of the canton of Jura</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D187" t="n">
-        <v>3</v>
+          <t>Q662914_округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Q3032139</t>
+          <t>Q1840504</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>district of the canton of Jura</t>
+          <t>национальный район</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Q662914_округ Швейцарии</t>
-        </is>
-      </c>
-      <c r="D188" t="n">
-        <v>3</v>
+          <t>Q27002_сельсовет в СССР</t>
+        </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Q1840504</t>
+          <t>Q17312348</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>национальный район</t>
+          <t>former subdistrict of the canton of Ticino</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Q27002_сельсовет в СССР</t>
-        </is>
-      </c>
-      <c r="D189" t="n">
-        <v>3</v>
+          <t>Q17278014_бывший округ Швейцарии</t>
+        </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Q1584957</t>
+          <t>Q15207445</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Borough of Palermo</t>
+          <t>fur-trading district</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>2</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Q3710483</t>
+          <t>Q81268491</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>district of Fiji</t>
+          <t>joint vocational school district</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>2</v>
+          <t>Q81268680_vocational school district</t>
+        </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Q4259749</t>
+          <t>Q3710483</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Лесной район (КНР)</t>
+          <t>district of Fiji</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Q2301018_Особый район (КНР)</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>2</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Q81268491</t>
+          <t>Q2249932</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>joint vocational school district</t>
+          <t>District of Wales</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Q81268680_vocational school district</t>
-        </is>
-      </c>
-      <c r="D193" t="n">
-        <v>2</v>
+          <t>Q17601336_district of the United Kingdom</t>
+        </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Q2249932</t>
+          <t>Q3867183</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>District of Wales</t>
+          <t>муниципалитет Венеции</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Q17601336_district of the United Kingdom</t>
-        </is>
-      </c>
-      <c r="D194" t="n">
-        <v>2</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Q15207445</t>
+          <t>Q4259749</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>fur-trading district</t>
+          <t>Лесной район (КНР)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D195" t="n">
-        <v>2</v>
+          <t>Q2301018_Особый район (КНР)</t>
+        </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Q3867183</t>
+          <t>Q1584957</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>муниципалитет Венеции</t>
+          <t>Borough of Palermo</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
           <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
-      </c>
-      <c r="D196" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Q16761595</t>
+          <t>Q17137839</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>circoscrizione of Treviso</t>
+          <t>circoscrizione of Verona</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
           <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
-      </c>
-      <c r="D197" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Q17137839</t>
+          <t>Q63040043</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>circoscrizione of Verona</t>
+          <t>school district of the U.S. Department of Defense</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Q13582281_район децентрализованной коммуны Италии</t>
-        </is>
-      </c>
-      <c r="D198" t="n">
-        <v>1</v>
+          <t>Q398141_школьный округ</t>
+        </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Q10771871</t>
+          <t>Q10267322</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>independent school district</t>
+          <t>state district of Brazil</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Q398141_школьный округ</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>1</v>
+          <t>Q149621_дистрикт</t>
+        </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Q12121054</t>
+          <t>Q627253</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Small rural settlements Ukraine</t>
+          <t>working class quarter</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Q15630906_сельский район</t>
-        </is>
-      </c>
-      <c r="D200" t="n">
-        <v>1</v>
+          <t>Q4286337_район города</t>
+        </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Q63040043</t>
+          <t>Q81270527</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>school district of the U.S. Department of Defense</t>
+          <t>exempted village school district</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
           <t>Q398141_школьный округ</t>
         </is>
-      </c>
-      <c r="D201" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Q81270527</t>
+          <t>Q10771871</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>exempted village school district</t>
+          <t>independent school district</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
           <t>Q398141_школьный округ</t>
         </is>
-      </c>
-      <c r="D202" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Q2301018</t>
+          <t>Q16751788</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Особый район (КНР)</t>
+          <t>circoscrizione of Vicenza</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Q1065118_район городского подчинения КНР</t>
-        </is>
-      </c>
-      <c r="D203" t="n">
-        <v>1</v>
+          <t>Q13582281_район децентрализованной коммуны Италии</t>
+        </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Q627253</t>
+          <t>Q12121054</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>working class quarter</t>
+          <t>Small rural settlements Ukraine</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Q4286337_район города</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>1</v>
+          <t>Q15630906_сельский район</t>
+        </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Q10267322</t>
+          <t>Q2301018</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>state district of Brazil</t>
+          <t>Особый район (КНР)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Q149621_дистрикт</t>
-        </is>
-      </c>
-      <c r="D205" t="n">
-        <v>1</v>
+          <t>Q1065118_район городского подчинения КНР</t>
+        </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Q16751788</t>
+          <t>Q16761595</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>circoscrizione of Vicenza</t>
+          <t>circoscrizione of Treviso</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
           <t>Q13582281_район децентрализованной коммуны Италии</t>
         </is>
-      </c>
-      <c r="D206" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +3937,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -4572,9 +3957,6 @@
           <t>Q14192199_территория Австралии</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4592,9 +3974,6 @@
           <t>Q14192199_территория Австралии</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4612,9 +3991,6 @@
           <t>Q475050_федеральный округ</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4632,9 +4008,6 @@
           <t>Q475050_федеральный округ</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -4651,9 +4024,6 @@
         <is>
           <t>Q475050_федеральный округ</t>
         </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4063,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -4713,9 +4083,7 @@
           <t>Q15642599_городской округ</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>481</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4733,9 +4101,7 @@
           <t>Q15642599_городской округ</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
